--- a/Data/Model Progression.xlsx
+++ b/Data/Model Progression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrhay\Project 4 Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UCF Data Bootcamp\Projects\Project-4 Machine Learning\Machine-Learning-Project-4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E487B94D-8CCD-4957-9989-8FA5C87270AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9A636E-1780-472F-99CA-77C30CF350D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="-8730" windowWidth="17940" windowHeight="19125" xr2:uid="{0E41CEA6-92E9-44E9-ACDA-01F99F76C5DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0E41CEA6-92E9-44E9-ACDA-01F99F76C5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Progression" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Model Progression</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Deep neural network utilizing Tensorflow and Keras</t>
-  </si>
-  <si>
-    <t>All 12 categories, with binning scores 2 through 4 and rounding reported total nurse hours</t>
   </si>
 </sst>
 </file>
@@ -200,43 +197,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -257,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A34D3-9E96-4851-9BFE-57D2FB19C663}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,204 +558,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="7">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="4">
         <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="7">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4">
         <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="8">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="5">
         <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="8">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="7">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="4">
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="10">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="9">
-        <v>0.79500000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
+  <mergeCells count="7">
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
